--- a/ExamClasseur1.xlsx
+++ b/ExamClasseur1.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Nouveau dossier (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F130ED-072C-4A56-AC5C-7534FBC96F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC5A7-A726-47DF-A5C2-F26609D5B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A3CFCCDF-DFF9-4AA8-9E49-F389AC3DC697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3CFCCDF-DFF9-4AA8-9E49-F389AC3DC697}"/>
   </bookViews>
   <sheets>
-    <sheet name="question 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tables" sheetId="5" r:id="rId2"/>
-    <sheet name="Facture" sheetId="6" r:id="rId3"/>
-    <sheet name="speed graphs" sheetId="7" r:id="rId4"/>
+    <sheet name="Info" sheetId="8" r:id="rId1"/>
+    <sheet name="question 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="5" r:id="rId3"/>
+    <sheet name="Facture" sheetId="6" r:id="rId4"/>
+    <sheet name="speed graphs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>students</t>
   </si>
@@ -149,6 +150,27 @@
   <si>
     <t>Total facture:</t>
   </si>
+  <si>
+    <t>section:</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name:</t>
+  </si>
+  <si>
+    <t>Khadidja</t>
+  </si>
+  <si>
+    <t>OULAD SAID</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -424,13 +446,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +600,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3604,6 +3725,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048194C-55E6-46F9-AE0B-4ABB7223B16A}">
+  <dimension ref="B4:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="36">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7E725-DCAD-4B34-B2E5-A443BE9C9402}">
   <dimension ref="C3:E45"/>
   <sheetViews>
@@ -4089,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F36F5-D48F-4192-A007-5290E7AE2E42}">
   <dimension ref="A2:G39"/>
   <sheetViews>
@@ -4553,11 +4725,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94349513-050D-4543-BE6E-0AE50D22A98C}">
   <dimension ref="B5:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5009,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB857BC2-56DE-4731-A763-FEA7677C354F}">
   <dimension ref="B4:D14"/>
   <sheetViews>
